--- a/Team-Data/2009-10/3-2-2009-10.xlsx
+++ b/Team-Data/2009-10/3-2-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,115 +733,115 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.638</v>
+        <v>0.644</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="J2" t="n">
         <v>83.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>6.3</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O2" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P2" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R2" t="n">
         <v>11.7</v>
       </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T2" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>11.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y2" t="n">
         <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM2" t="n">
         <v>12</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
@@ -783,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
         <v>10</v>
@@ -792,19 +859,19 @@
         <v>26</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
@@ -816,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
         <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>0.625</v>
+        <v>0.632</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O3" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P3" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T3" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.5</v>
@@ -908,22 +975,22 @@
         <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA3" t="n">
         <v>21.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AD3" t="n">
         <v>29</v>
@@ -932,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG3" t="n">
         <v>8</v>
@@ -941,7 +1008,7 @@
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -953,16 +1020,16 @@
         <v>18</v>
       </c>
       <c r="AM3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO3" t="n">
         <v>16</v>
       </c>
-      <c r="AN3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ3" t="n">
         <v>24</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,10 +1050,10 @@
         <v>26</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -1030,67 +1097,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.491</v>
+        <v>0.483</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M4" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O4" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P4" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
         <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y4" t="n">
         <v>6.3</v>
@@ -1102,22 +1169,22 @@
         <v>21.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="n">
         <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1147,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
@@ -1168,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1183,7 +1250,7 @@
         <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -1290,25 +1357,25 @@
         <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1332,7 +1399,7 @@
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>2</v>
@@ -1347,13 +1414,13 @@
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
         <v>1</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
         <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.797</v>
+        <v>0.77</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="J6" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.492</v>
+        <v>0.488</v>
       </c>
       <c r="L6" t="n">
         <v>7.6</v>
@@ -1424,28 +1491,28 @@
         <v>19.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.398</v>
+        <v>0.397</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R6" t="n">
         <v>9.6</v>
       </c>
       <c r="S6" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U6" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V6" t="n">
         <v>14.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,16 +1551,16 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>28</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL6" t="n">
         <v>6</v>
@@ -1505,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>27</v>
@@ -1520,16 +1587,16 @@
         <v>4</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>5</v>
@@ -1538,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.667</v>
+        <v>0.656</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J7" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
         <v>6.3</v>
@@ -1606,13 +1673,13 @@
         <v>17.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P7" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8149999999999999</v>
@@ -1627,16 +1694,16 @@
         <v>42.3</v>
       </c>
       <c r="U7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V7" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y7" t="n">
         <v>4.4</v>
@@ -1645,28 +1712,28 @@
         <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1678,7 +1745,7 @@
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>15</v>
@@ -1687,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
@@ -1708,10 +1775,10 @@
         <v>3</v>
       </c>
       <c r="AV7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
         <v>7</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -1758,52 +1825,52 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.644</v>
+        <v>0.65</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O8" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="P8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="Q8" t="n">
         <v>0.772</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
         <v>41.4</v>
@@ -1815,7 +1882,7 @@
         <v>14.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X8" t="n">
         <v>4.9</v>
@@ -1827,22 +1894,22 @@
         <v>22.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="n">
         <v>4.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
         <v>5</v>
@@ -1851,19 +1918,19 @@
         <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
         <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN8" t="n">
         <v>3</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS8" t="n">
         <v>17</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>14</v>
       </c>
       <c r="AT8" t="n">
         <v>21</v>
@@ -1893,13 +1960,13 @@
         <v>16</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -1943,13 +2010,13 @@
         <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.339</v>
+        <v>0.356</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,43 +2025,43 @@
         <v>35.4</v>
       </c>
       <c r="J9" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.29</v>
+        <v>0.296</v>
       </c>
       <c r="O9" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P9" t="n">
         <v>24.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.718</v>
+        <v>0.714</v>
       </c>
       <c r="R9" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S9" t="n">
         <v>28.2</v>
       </c>
       <c r="T9" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U9" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="V9" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2003,40 +2070,40 @@
         <v>3.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>92.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.8</v>
+        <v>-4.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>27</v>
@@ -2051,7 +2118,7 @@
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP9" t="n">
         <v>15</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>17</v>
@@ -2075,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>28</v>
@@ -2093,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -2140,55 +2207,55 @@
         <v>40</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.467</v>
       </c>
       <c r="L10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M10" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P10" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R10" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S10" t="n">
         <v>29.7</v>
       </c>
       <c r="T10" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V10" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W10" t="n">
         <v>9.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
         <v>21.9</v>
@@ -2197,10 +2264,10 @@
         <v>107.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>28</v>
@@ -2224,13 +2291,13 @@
         <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
         <v>4</v>
@@ -2239,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2266,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="n">
         <v>29</v>
       </c>
-      <c r="F11" t="n">
-        <v>28</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.509</v>
+        <v>0.508</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J11" t="n">
         <v>84.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
@@ -2334,7 +2401,7 @@
         <v>22.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O11" t="n">
         <v>18.8</v>
@@ -2349,49 +2416,49 @@
         <v>12.1</v>
       </c>
       <c r="S11" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U11" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
@@ -2412,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>14</v>
@@ -2421,25 +2488,25 @@
         <v>14</v>
       </c>
       <c r="AQ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR11" t="n">
         <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2451,10 +2518,10 @@
         <v>17</v>
       </c>
       <c r="BA11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -2504,46 +2571,46 @@
         <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
         <v>22.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O12" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
         <v>42</v>
       </c>
       <c r="U12" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V12" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X12" t="n">
         <v>5.7</v>
@@ -2552,22 +2619,22 @@
         <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
         <v>25</v>
@@ -2582,7 +2649,7 @@
         <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2600,7 +2667,7 @@
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2615,31 +2682,31 @@
         <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>24</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" t="n">
-        <v>0.431</v>
+        <v>0.417</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>5.4</v>
       </c>
       <c r="M13" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N13" t="n">
         <v>0.328</v>
       </c>
       <c r="O13" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P13" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.735</v>
+        <v>0.731</v>
       </c>
       <c r="R13" t="n">
         <v>11.3</v>
       </c>
       <c r="S13" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T13" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U13" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
         <v>5.8</v>
@@ -2734,19 +2801,19 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>20.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2767,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
         <v>23</v>
@@ -2782,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
@@ -2794,16 +2861,16 @@
         <v>22</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
         <v>28</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,10 +2879,10 @@
         <v>8</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -2865,46 +2932,46 @@
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
         <v>84.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="O14" t="n">
         <v>18.1</v>
       </c>
       <c r="P14" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T14" t="n">
         <v>44.7</v>
       </c>
       <c r="U14" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W14" t="n">
         <v>7.7</v>
@@ -2913,22 +2980,22 @@
         <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2946,28 +3013,28 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL14" t="n">
         <v>12</v>
       </c>
-      <c r="AL14" t="n">
-        <v>11</v>
-      </c>
       <c r="AM14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>21</v>
       </c>
       <c r="AP14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR14" t="n">
         <v>11</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
         <v>6</v>
@@ -2988,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>7</v>
@@ -2997,10 +3064,10 @@
         <v>2</v>
       </c>
       <c r="BA14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J15" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L15" t="n">
         <v>4.3</v>
@@ -3062,16 +3129,16 @@
         <v>12.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O15" t="n">
         <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R15" t="n">
         <v>13</v>
@@ -3080,16 +3147,16 @@
         <v>30.2</v>
       </c>
       <c r="T15" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X15" t="n">
         <v>5.1</v>
@@ -3098,28 +3165,28 @@
         <v>5.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.5</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>4</v>
@@ -3128,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>6</v>
@@ -3140,7 +3207,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3149,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR15" t="n">
         <v>2</v>
@@ -3164,13 +3231,13 @@
         <v>25</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
@@ -3179,10 +3246,10 @@
         <v>9</v>
       </c>
       <c r="BA15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -3229,40 +3296,40 @@
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
         <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
         <v>16.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P16" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R16" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T16" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U16" t="n">
         <v>18.8</v>
@@ -3283,25 +3350,25 @@
         <v>21.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
         <v>23</v>
@@ -3313,10 +3380,10 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
         <v>20</v>
@@ -3325,16 +3392,16 @@
         <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR16" t="n">
         <v>19</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>16</v>
       </c>
       <c r="AS16" t="n">
         <v>13</v>
@@ -3346,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
@@ -3355,19 +3422,19 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>0.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="n">
         <v>15</v>
       </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
       <c r="AH17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
@@ -3504,7 +3571,7 @@
         <v>6</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO17" t="n">
         <v>30</v>
@@ -3513,13 +3580,13 @@
         <v>30</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT17" t="n">
         <v>4</v>
@@ -3531,13 +3598,13 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
         <v>26</v>
@@ -3549,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>47</v>
       </c>
       <c r="G18" t="n">
-        <v>0.217</v>
+        <v>0.23</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L18" t="n">
         <v>4.7</v>
       </c>
       <c r="M18" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P18" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q18" t="n">
         <v>0.739</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
         <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U18" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X18" t="n">
         <v>3.6</v>
@@ -3650,10 +3717,10 @@
         <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>3</v>
@@ -3668,16 +3735,16 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
@@ -3686,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>27</v>
@@ -3698,7 +3765,7 @@
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
         <v>11</v>
@@ -3713,7 +3780,7 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
         <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>0.103</v>
+        <v>0.102</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
@@ -3787,58 +3854,58 @@
         <v>4.1</v>
       </c>
       <c r="M19" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.304</v>
+        <v>0.301</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
         <v>10.8</v>
       </c>
       <c r="S19" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T19" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="U19" t="n">
         <v>18</v>
       </c>
       <c r="V19" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W19" t="n">
         <v>7.3</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB19" t="n">
         <v>90.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.9</v>
+        <v>-10.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3877,13 +3944,13 @@
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="n">
         <v>29</v>
@@ -3895,19 +3962,19 @@
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>13</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
         <v>31</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.517</v>
+        <v>0.508</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,7 +4027,7 @@
         <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.455</v>
@@ -3969,34 +4036,34 @@
         <v>7.3</v>
       </c>
       <c r="M20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O20" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P20" t="n">
         <v>20.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.792</v>
+        <v>0.788</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
@@ -4011,13 +4078,13 @@
         <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
         <v>3</v>
@@ -4026,10 +4093,10 @@
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4059,19 +4126,19 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
@@ -4083,19 +4150,19 @@
         <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.345</v>
+        <v>0.339</v>
       </c>
       <c r="H21" t="n">
         <v>48.7</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J21" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L21" t="n">
         <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O21" t="n">
         <v>16.2</v>
@@ -4166,16 +4233,16 @@
         <v>0.769</v>
       </c>
       <c r="R21" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S21" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T21" t="n">
         <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V21" t="n">
         <v>14.2</v>
@@ -4184,46 +4251,46 @@
         <v>7.3</v>
       </c>
       <c r="X21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y21" t="n">
         <v>4.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
         <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
         <v>5</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
         <v>19</v>
@@ -4253,13 +4320,13 @@
         <v>25</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>25</v>
@@ -4268,16 +4335,16 @@
         <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4391,7 @@
         <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.457</v>
@@ -4333,25 +4400,25 @@
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O22" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="P22" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S22" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T22" t="n">
         <v>43.6</v>
@@ -4366,28 +4433,28 @@
         <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
@@ -4405,7 +4472,7 @@
         <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
         <v>24</v>
@@ -4414,19 +4481,19 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS22" t="n">
         <v>6</v>
@@ -4438,7 +4505,7 @@
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
         <v>5</v>
@@ -4450,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" t="n">
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.667</v>
+        <v>0.672</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
         <v>27.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.36</v>
+        <v>0.364</v>
       </c>
       <c r="O23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P23" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R23" t="n">
         <v>9.6</v>
@@ -4536,16 +4603,16 @@
         <v>33.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V23" t="n">
         <v>14.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
         <v>5.5</v>
@@ -4557,13 +4624,13 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD23" t="n">
         <v>3</v>
@@ -4587,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4620,7 +4687,7 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>25</v>
@@ -4635,10 +4702,10 @@
         <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
         <v>3</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.379</v>
+        <v>0.373</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,7 +4755,7 @@
         <v>37.3</v>
       </c>
       <c r="J24" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K24" t="n">
         <v>0.453</v>
@@ -4700,28 +4767,28 @@
         <v>16.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O24" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P24" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
         <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U24" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
         <v>14.3</v>
@@ -4733,34 +4800,34 @@
         <v>5.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
         <v>19.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>22</v>
       </c>
       <c r="AF24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
         <v>22</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>19</v>
@@ -4769,7 +4836,7 @@
         <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,22 +4845,22 @@
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
         <v>9</v>
       </c>
       <c r="AS24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT24" t="n">
         <v>16</v>
@@ -4802,7 +4869,7 @@
         <v>17</v>
       </c>
       <c r="AV24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.607</v>
+        <v>0.613</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4879,31 +4946,31 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.404</v>
+        <v>0.405</v>
       </c>
       <c r="O25" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P25" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
         <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T25" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U25" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V25" t="n">
         <v>14.9</v>
@@ -4915,7 +4982,7 @@
         <v>5.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25" t="n">
         <v>20.7</v>
@@ -4927,13 +4994,13 @@
         <v>109.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD25" t="n">
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
@@ -4963,13 +5030,13 @@
         <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
         <v>12</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4993,7 +5060,7 @@
         <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" t="n">
         <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
@@ -5055,61 +5122,61 @@
         <v>78</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M26" t="n">
         <v>17.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O26" t="n">
         <v>19.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.787</v>
+        <v>0.789</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U26" t="n">
         <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.3</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Y26" t="n">
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5133,7 +5200,7 @@
         <v>26</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5142,19 +5209,19 @@
         <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP26" t="n">
         <v>13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
         <v>28</v>
@@ -5169,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -5231,13 +5298,13 @@
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J27" t="n">
         <v>83.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
@@ -5246,28 +5313,28 @@
         <v>17.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O27" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.726</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>30.6</v>
       </c>
       <c r="T27" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V27" t="n">
         <v>15.4</v>
@@ -5276,28 +5343,28 @@
         <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
         <v>5.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>25</v>
@@ -5312,25 +5379,25 @@
         <v>8</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>16</v>
       </c>
       <c r="AM27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
         <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
@@ -5339,13 +5406,13 @@
         <v>7</v>
       </c>
       <c r="AS27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
         <v>25</v>
@@ -5363,13 +5430,13 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -5398,34 +5465,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.579</v>
+        <v>0.586</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M28" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N28" t="n">
         <v>0.361</v>
@@ -5434,10 +5501,10 @@
         <v>18</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R28" t="n">
         <v>10.9</v>
@@ -5449,34 +5516,34 @@
         <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V28" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y28" t="n">
         <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA28" t="n">
         <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -5491,7 +5558,7 @@
         <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
@@ -5500,7 +5567,7 @@
         <v>8</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>11</v>
@@ -5515,28 +5582,28 @@
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR28" t="n">
         <v>15</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
         <v>23</v>
@@ -5545,13 +5612,13 @@
         <v>14</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>15</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.517</v>
+        <v>0.525</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J29" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.478</v>
@@ -5610,31 +5677,31 @@
         <v>17.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P29" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R29" t="n">
         <v>10</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U29" t="n">
         <v>21.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W29" t="n">
         <v>5.6</v>
@@ -5643,25 +5710,25 @@
         <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB29" t="n">
         <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -5673,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
@@ -5682,7 +5749,7 @@
         <v>5</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>18</v>
@@ -5691,25 +5758,25 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP29" t="n">
         <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>24</v>
       </c>
       <c r="AU29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5721,7 +5788,7 @@
         <v>17</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
         <v>38</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.644</v>
+        <v>0.633</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5786,28 +5853,28 @@
         <v>0.49</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M30" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O30" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P30" t="n">
         <v>27</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.735</v>
+        <v>0.738</v>
       </c>
       <c r="R30" t="n">
         <v>10.3</v>
       </c>
       <c r="S30" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T30" t="n">
         <v>41.2</v>
@@ -5819,10 +5886,10 @@
         <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y30" t="n">
         <v>5.2</v>
@@ -5837,19 +5904,19 @@
         <v>102.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
         <v>25</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>25</v>
@@ -5870,16 +5937,16 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
         <v>22</v>
@@ -5900,19 +5967,19 @@
         <v>6</v>
       </c>
       <c r="AX30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
         <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>0.357</v>
+        <v>0.368</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5962,10 +6029,10 @@
         <v>37.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
         <v>5.6</v>
@@ -5974,7 +6041,7 @@
         <v>16.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O31" t="n">
         <v>18.3</v>
@@ -5983,13 +6050,13 @@
         <v>24</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R31" t="n">
         <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T31" t="n">
         <v>42.4</v>
@@ -6007,19 +6074,19 @@
         <v>5.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
         <v>21</v>
@@ -6052,7 +6119,7 @@
         <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
         <v>18</v>
@@ -6067,10 +6134,10 @@
         <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AT31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6085,19 +6152,19 @@
         <v>11</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>21</v>
       </c>
       <c r="BC31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-2-2009-10</t>
+          <t>2010-03-02</t>
         </is>
       </c>
     </row>
